--- a/iselUssSyncV2/OutputWSLorientation/20220524_1317_D50L474W30Q18.0U0.36H62.7G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1317_D50L474W30Q18.0U0.36H62.7G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.47709409846446738</v>
+        <v>0.27277778390291202</v>
       </c>
       <c r="P2" s="0">
         <v>228.99304333333336</v>
@@ -356,10 +356,10 @@
         <v>2.2464217551000005</v>
       </c>
       <c r="R2" s="0">
-        <v>1.4438315873502894</v>
+        <v>2.5252919048076978</v>
       </c>
       <c r="S2" s="0">
-        <v>0.39478771103803062</v>
+        <v>1.3355060572381374</v>
       </c>
       <c r="T2" s="0">
         <v>0.037544005666178271</v>
@@ -383,16 +383,16 @@
         <v>170000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.5558751967898272</v>
+        <v>0.88956914280809318</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.6902018282012792</v>
+        <v>1.6820753024105792</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.6782425099553433</v>
+        <v>1.8391212549776716</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.4901271473336881</v>
+        <v>1.7450635736668441</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.3684443381566229</v>
+        <v>3.5211965573882509</v>
       </c>
     </row>
   </sheetData>
